--- a/function-points/function_points.xlsx
+++ b/function-points/function_points.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weber\Development\ptb-documentation\function-points\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duales Studium\DHBW\Vorlesungen\4-Semester\Softwareengineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C58C1D-A973-4C1A-8B54-50DC2D4A58BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0A26BB-A4A5-4FD3-A1EB-F5C0BF0C0CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="69">
   <si>
     <t>Function Points</t>
   </si>
@@ -624,7 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -791,7 +791,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -986,10 +985,10 @@
                   <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6018</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2880</c:v>
+                  <c:v>32016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,10 +1003,10 @@
                   <c:v>21.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.5</c:v>
+                  <c:v>9.68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>111.6</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1057,35 +1056,29 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabellenblatt1!$C$8:$C$10</c:f>
+              <c:f>Tabellenblatt1!$C$10:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>546.89265536723155</c:v>
+                  <c:v>9406.8965517241395</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1541.2429378531074</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1143.5028248587569</c:v>
+                  <c:v>6979.3103448275861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabellenblatt1!$D$8:$D$10</c:f>
+              <c:f>Tabellenblatt1!$D$10:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>9.68</c:v>
+                  <c:v>27.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.28</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>20.239999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -1101,6 +1094,942 @@
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="366315992"/>
+        <c:axId val="366308776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="366315992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Time spent (min)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39499284913898713"/>
+              <c:y val="0.90226744299642447"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366308776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="366308776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Function Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366315992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Function Points PlaceToBeer</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7101466358621338E-2"/>
+          <c:y val="0.10967807063819257"/>
+          <c:w val="0.83067212032627658"/>
+          <c:h val="0.704345036895202"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabellenblatt1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Function Points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="98000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7BDDBD2D-29F6-40D3-B9FC-8995B2FEB2E8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-8F40-4690-A3C0-926F3C435A8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AD5EF155-B1C7-44C5-A5B9-E555FEF553AC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-8F40-4690-A3C0-926F3C435A8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C06AEB4F-ED49-4FFE-9C43-388B1FF38F04}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-8F40-4690-A3C0-926F3C435A8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D368FBFA-2094-4386-A692-4E5CB6B4F08D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-8F40-4690-A3C0-926F3C435A8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabellenblatt1!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabellenblatt1!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Tabellenblatt1!$A$3:$A$6</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>Delete Group</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Create Proposal</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Manage Group</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Manage Group memberships</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1CCA-49D4-A941-9525FD79B4F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabellenblatt1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Function Points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E67E1F59-D588-4371-AEEE-F14C8C83C3B9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-8F40-4690-A3C0-926F3C435A8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{60AD7A07-CC76-4ED7-B41F-5B0CD385A3A5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-8F40-4690-A3C0-926F3C435A8F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabellenblatt1!$C$10:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9406.8965517241395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6979.3103448275861</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabellenblatt1!$D$10:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>27.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.239999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Tabellenblatt1!$A$10:$A$11</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>Rate Proposal</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Filter View By Activities</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-1CCA-49D4-A941-9525FD79B4F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1436,7 +2365,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1964,7 +3449,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1859280</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1985,6 +3470,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>115644</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1868244</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BDC0AB5-D75D-454F-BCE3-2CDD22DB7611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2290,7 +3811,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -2329,10 +3850,10 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="13.8">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="83">
+      <c r="B3" s="82">
         <v>180</v>
       </c>
       <c r="C3" s="62">
@@ -2344,135 +3865,134 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="13.8">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="82">
+        <v>546</v>
+      </c>
+      <c r="C4" s="62">
+        <v>340</v>
+      </c>
+      <c r="D4" s="63">
+        <v>9.68</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.8">
+      <c r="A5" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="83">
-        <v>10470</v>
-      </c>
-      <c r="C4" s="62">
-        <v>6018</v>
-      </c>
-      <c r="D4" s="63">
+      <c r="B5" s="82">
+        <v>30390</v>
+      </c>
+      <c r="C5" s="62">
+        <v>32016</v>
+      </c>
+      <c r="D5" s="63">
         <v>76.5</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="13.8">
-      <c r="A5" s="74" t="s">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.8">
+      <c r="A6" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="83">
-        <v>10470</v>
-      </c>
-      <c r="C5" s="62">
-        <v>2880</v>
-      </c>
-      <c r="D5" s="63">
+      <c r="B6" s="82">
+        <v>5910</v>
+      </c>
+      <c r="C6" s="62">
+        <v>4747</v>
+      </c>
+      <c r="D6" s="63">
         <v>111.6</v>
       </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.8">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6">
-      <c r="A7" s="60" t="s">
+    <row r="7" spans="1:5" ht="13.2">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.8">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.6">
+      <c r="A9" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61" t="s">
+      <c r="B9" s="61"/>
+      <c r="C9" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.8">
-      <c r="A8" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="64" t="s">
+      <c r="D9" s="61"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.8">
+      <c r="A10" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="80">
-        <f>1/0.0177*D8</f>
-        <v>546.89265536723155</v>
-      </c>
-      <c r="D8" s="65">
-        <v>9.68</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.8">
-      <c r="A9" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="63" t="s">
+      <c r="C10" s="79">
+        <f>1/0.0029*D10</f>
+        <v>9406.8965517241395</v>
+      </c>
+      <c r="D10" s="63">
+        <v>27.28</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="13.8">
+      <c r="A11" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="80">
-        <f>1/0.0177*D9</f>
-        <v>1541.2429378531074</v>
-      </c>
-      <c r="D9" s="63">
-        <v>27.28</v>
-      </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.8">
-      <c r="A10" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="80">
-        <f>1/0.0177*D10</f>
-        <v>1143.5028248587569</v>
-      </c>
-      <c r="D10" s="65">
+      <c r="C11" s="79">
+        <f>1/0.0029*D11</f>
+        <v>6979.3103448275861</v>
+      </c>
+      <c r="D11" s="64">
         <v>20.239999999999998</v>
       </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" ht="13.2">
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" ht="13.8">
-      <c r="A12" s="76" t="s">
+    <row r="12" spans="1:5" ht="13.2">
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="13.8">
+      <c r="A13" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="82">
-        <f>SUM(B3:B5)</f>
-        <v>21120</v>
-      </c>
-      <c r="C12" s="62">
-        <f>SUM(C3:C5)</f>
-        <v>9158</v>
-      </c>
-      <c r="D12" s="63">
-        <f>SUM(D3:D5)</f>
-        <v>209.7</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A13" s="77" t="s">
+      <c r="B13" s="81">
+        <f>SUM(B3:B6)</f>
+        <v>37026</v>
+      </c>
+      <c r="C13" s="62">
+        <f>SUM(C3:C6)</f>
+        <v>37363</v>
+      </c>
+      <c r="D13" s="63">
+        <f>SUM(D3:D6)</f>
+        <v>219.38</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.4" thickBot="1">
+      <c r="A14" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="81">
-        <f>C12/D12</f>
-        <v>43.671912255603246</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="13.2">
-      <c r="A14" s="5"/>
+      <c r="B14" s="80">
+        <f>C13/D13</f>
+        <v>170.31178776552102</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="13.2">
       <c r="A15" s="5"/>
@@ -2482,70 +4002,47 @@
     </row>
     <row r="17" spans="1:11" ht="13.2">
       <c r="A17" s="5"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-    </row>
-    <row r="18" spans="1:11" ht="13.8">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="50"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A19" s="40" t="s">
+    </row>
+    <row r="18" spans="1:11" ht="13.2">
+      <c r="A18" s="5"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+    </row>
+    <row r="19" spans="1:11" ht="13.8">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="50"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B20" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C20" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D20" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E20" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="78" t="s">
+      <c r="F20" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G20" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H20" s="21" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="13.2">
-      <c r="A20" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="22">
-        <v>1</v>
-      </c>
-      <c r="D20" s="22">
-        <v>1</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="13.2">
       <c r="A21" s="32" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>6</v>
@@ -2554,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>7</v>
@@ -2563,15 +4060,15 @@
         <v>8</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="13.2">
       <c r="A22" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>6</v>
@@ -2589,48 +4086,48 @@
         <v>8</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" ht="26.4">
+    </row>
+    <row r="23" spans="1:11" ht="13.2">
       <c r="A23" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="22">
+        <v>10</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="22">
+        <v>1</v>
+      </c>
+      <c r="D23" s="22">
         <v>2</v>
-      </c>
-      <c r="C23" s="22">
-        <v>6</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>6</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="13.2">
+        <v>26</v>
+      </c>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="26.4">
       <c r="A24" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" s="22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>6</v>
@@ -2639,328 +4136,328 @@
         <v>7</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="23"/>
+        <v>28</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="H24" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="13.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-    </row>
-    <row r="26" spans="1:11" ht="22.2" customHeight="1">
-      <c r="A26" s="19" t="s">
+      <c r="A25" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="22">
+        <v>0</v>
+      </c>
+      <c r="C25" s="22">
+        <v>0</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13.2">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+    </row>
+    <row r="27" spans="1:11" ht="22.2" customHeight="1">
+      <c r="A27" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B27" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C27" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D27" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E27" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F27" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G27" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H27" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="59.4" customHeight="1">
-      <c r="A27" s="32" t="s">
+    <row r="28" spans="1:11" ht="59.4" customHeight="1">
+      <c r="A28" s="32" t="s">
         <v>5</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="22">
-        <v>14</v>
-      </c>
-      <c r="D27" s="22">
-        <v>2</v>
-      </c>
-      <c r="E27" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="26.4">
-      <c r="A28" s="32" t="s">
-        <v>9</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="22">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D28" s="22">
         <v>2</v>
       </c>
-      <c r="E28" s="33" t="s">
-        <v>7</v>
+      <c r="E28" s="78" t="s">
+        <v>44</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="23" t="s">
-        <v>32</v>
+      <c r="G28" s="71" t="s">
+        <v>67</v>
       </c>
       <c r="H28" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="13.2">
-      <c r="A29" s="34" t="s">
+    <row r="29" spans="1:11" ht="26.4">
+      <c r="A29" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="22">
+        <v>3</v>
+      </c>
+      <c r="D29" s="22">
+        <v>2</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="13.2">
+      <c r="A30" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B30" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C30" s="35">
         <v>1</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D30" s="35">
         <v>1</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E30" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F30" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G30" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="39" t="s">
+      <c r="H30" s="39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="26.4">
-      <c r="A30" s="20" t="s">
+    <row r="31" spans="1:11" ht="26.4">
+      <c r="A31" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B31" s="22">
         <v>2</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C31" s="22">
         <v>6</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D31" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E31" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F31" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G31" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H31" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="13.2">
-      <c r="A31" s="45" t="s">
+    <row r="32" spans="1:11" ht="13.2">
+      <c r="A32" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="35">
+      <c r="B32" s="35">
         <v>0</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C32" s="35">
         <v>0</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D32" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E32" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F32" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G32" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="39" t="s">
+      <c r="H32" s="39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="13.2">
-      <c r="A32" s="67"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.6">
-      <c r="A33" s="71" t="s">
+    <row r="33" spans="1:8" ht="13.2">
+      <c r="A33" s="66"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.6">
+      <c r="A34" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B34" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C34" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D34" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="58" t="s">
+      <c r="E34" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="41" t="s">
+      <c r="F34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G34" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="42" t="s">
+      <c r="H34" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="58.8" customHeight="1">
-      <c r="A34" s="32" t="s">
+    <row r="35" spans="1:8" ht="58.8" customHeight="1">
+      <c r="A35" s="32" t="s">
         <v>5</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="22">
-        <v>14</v>
-      </c>
-      <c r="D34" s="22">
-        <v>3</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="H34" s="72" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="28.2" customHeight="1">
-      <c r="A35" s="32" t="s">
-        <v>9</v>
       </c>
       <c r="B35" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="22">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D35" s="22">
         <v>3</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F35" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28.2" customHeight="1">
+      <c r="A36" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="22">
+        <v>4</v>
+      </c>
+      <c r="D36" s="22">
+        <v>3</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="72" t="s">
+      <c r="H36" s="71" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.399999999999999" customHeight="1">
-      <c r="A36" s="34" t="s">
+    <row r="37" spans="1:8" ht="20.399999999999999" customHeight="1">
+      <c r="A37" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B37" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C37" s="35">
         <v>1</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D37" s="35">
         <v>2</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E37" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="38" t="s">
+      <c r="F37" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="73" t="s">
+      <c r="G37" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="73" t="s">
+      <c r="H37" s="72" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="39.6">
-      <c r="A37" s="20" t="s">
+    <row r="38" spans="1:8" ht="39.6">
+      <c r="A38" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B38" s="22">
         <v>3</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C38" s="22">
         <v>9</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="13.2">
-      <c r="A38" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="22">
-        <v>0</v>
-      </c>
-      <c r="C38" s="22">
-        <v>0</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>6</v>
@@ -2968,121 +4465,121 @@
       <c r="E38" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>8</v>
+      <c r="F38" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="71" t="s">
+        <v>65</v>
       </c>
       <c r="H38" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="30.6" customHeight="1">
-      <c r="A39" s="17"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-    </row>
-    <row r="40" spans="1:8" ht="14.4">
-      <c r="A40" s="18" t="s">
+    <row r="39" spans="1:8" ht="13.2">
+      <c r="A39" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="22">
+        <v>0</v>
+      </c>
+      <c r="C39" s="22">
+        <v>0</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30.6" customHeight="1">
+      <c r="A40" s="17"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:8" ht="14.4">
+      <c r="A41" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-    </row>
-    <row r="41" spans="1:8" ht="13.2">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.6">
-      <c r="A42" s="19" t="s">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+    </row>
+    <row r="42" spans="1:8" ht="13.2">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.6">
+      <c r="A43" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B43" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C43" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D43" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E43" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F43" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G43" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="25" t="s">
+      <c r="H43" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="39.6">
-      <c r="A43" s="20" t="s">
+    <row r="44" spans="1:8" ht="39.6">
+      <c r="A44" s="20" t="s">
         <v>5</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="22">
-        <v>10</v>
-      </c>
-      <c r="D43" s="22">
-        <v>2</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="13.2">
-      <c r="A44" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D44" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="13.2">
       <c r="A45" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" s="22" t="s">
         <v>6</v>
@@ -3091,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="22" t="s">
         <v>7</v>
@@ -3100,47 +4597,47 @@
         <v>8</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="43.2" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="13.2">
       <c r="A46" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="22">
+        <v>10</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="22">
+        <v>1</v>
+      </c>
+      <c r="D46" s="22">
         <v>2</v>
-      </c>
-      <c r="C46" s="22">
-        <v>7</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>6</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="13.2">
-      <c r="A47" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="35">
-        <v>0</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="43.2" customHeight="1">
+      <c r="A47" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="22">
+        <v>2</v>
       </c>
       <c r="C47" s="22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>6</v>
@@ -3149,80 +4646,80 @@
         <v>7</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="H47" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="13.2">
-      <c r="A48" s="53"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.6">
-      <c r="A49" s="46" t="s">
+      <c r="A48" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="35">
+        <v>0</v>
+      </c>
+      <c r="C48" s="22">
+        <v>0</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="13.2">
+      <c r="A49" s="53"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.6">
+      <c r="A50" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B50" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C50" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="57" t="s">
+      <c r="D50" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="57" t="s">
+      <c r="E50" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="42" t="s">
+      <c r="F50" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G49" s="42" t="s">
+      <c r="G50" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H49" s="42" t="s">
+      <c r="H50" s="42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="26.4">
-      <c r="A50" s="20" t="s">
+    <row r="51" spans="1:8" ht="26.4">
+      <c r="A51" s="20" t="s">
         <v>5</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="22">
-        <v>1</v>
-      </c>
-      <c r="D50" s="22">
-        <v>1</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H50" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="13.2">
-      <c r="A51" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="B51" s="22" t="s">
         <v>6</v>
@@ -3231,30 +4728,30 @@
         <v>1</v>
       </c>
       <c r="D51" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="13.2">
       <c r="A52" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="22">
         <v>2</v>
@@ -3266,129 +4763,129 @@
         <v>8</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="54.6" customHeight="1">
+    <row r="53" spans="1:8" ht="13.2">
       <c r="A53" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="22">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="C53" s="22">
-        <v>11</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D53" s="22">
+        <v>2</v>
       </c>
       <c r="E53" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="54.6" customHeight="1">
+      <c r="A54" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="22">
+        <v>3</v>
+      </c>
+      <c r="C54" s="22">
+        <v>11</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="G54" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H53" s="23" t="s">
+      <c r="H54" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="13.2">
-      <c r="A54" s="45" t="s">
+    <row r="55" spans="1:8" ht="13.2">
+      <c r="A55" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="35">
+      <c r="B55" s="35">
         <v>0</v>
       </c>
-      <c r="C54" s="35">
+      <c r="C55" s="35">
         <v>0</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D55" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="35" t="s">
+      <c r="E55" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="39" t="s">
+      <c r="F55" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="39" t="s">
+      <c r="G55" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H54" s="39" t="s">
+      <c r="H55" s="39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13.2">
-      <c r="A55" s="53"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.6">
-      <c r="A56" s="46" t="s">
+    <row r="56" spans="1:8" ht="13.2">
+      <c r="A56" s="53"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.6">
+      <c r="A57" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="59" t="s">
+      <c r="B57" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C57" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="59" t="s">
+      <c r="D57" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="59" t="s">
+      <c r="E57" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="54" t="s">
+      <c r="F57" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="G56" s="54" t="s">
+      <c r="G57" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="54" t="s">
+      <c r="H57" s="54" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A57" s="20" t="s">
+    <row r="58" spans="1:8" ht="15.6" customHeight="1">
+      <c r="A58" s="20" t="s">
         <v>5</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="26">
-        <v>2</v>
-      </c>
-      <c r="D57" s="26">
-        <v>1</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H57" s="27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="16.2" customHeight="1">
-      <c r="A58" s="20" t="s">
-        <v>9</v>
       </c>
       <c r="B58" s="26" t="s">
         <v>6</v>
@@ -3397,7 +4894,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>7</v>
@@ -3406,15 +4903,15 @@
         <v>8</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H58" s="27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16.2" customHeight="1">
       <c r="A59" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59" s="26" t="s">
         <v>6</v>
@@ -3432,76 +4929,102 @@
         <v>8</v>
       </c>
       <c r="G59" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A60" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="26">
+        <v>2</v>
+      </c>
+      <c r="D60" s="26">
+        <v>2</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="H59" s="27" t="s">
+      <c r="H60" s="27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="53.4" customHeight="1">
-      <c r="A60" s="28" t="s">
+    <row r="61" spans="1:8" ht="53.4" customHeight="1">
+      <c r="A61" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="22">
+      <c r="B61" s="22">
         <v>3</v>
       </c>
-      <c r="C60" s="22">
+      <c r="C61" s="22">
         <v>11</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D61" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E61" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="23" t="s">
+      <c r="F61" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G60" s="23" t="s">
+      <c r="G61" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H60" s="23" t="s">
+      <c r="H61" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A61" s="20" t="s">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A62" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B62" s="26">
         <v>0</v>
       </c>
-      <c r="C61" s="26">
+      <c r="C62" s="26">
         <v>0</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="D62" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E62" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="29" t="s">
+      <c r="F62" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="30" t="s">
+      <c r="G62" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H61" s="29" t="s">
+      <c r="H62" s="29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D94" s="9"/>
-    </row>
-    <row r="95" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D95" s="8"/>
-    </row>
-    <row r="96" spans="4:5" ht="15.75" customHeight="1">
+    <row r="95" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D95" s="9"/>
+    </row>
+    <row r="96" spans="4:4" ht="15.75" customHeight="1">
       <c r="D96" s="8"/>
-      <c r="E96" s="9"/>
-    </row>
-    <row r="97" spans="4:4" ht="15.75" customHeight="1">
+    </row>
+    <row r="97" spans="4:5" ht="15.75" customHeight="1">
       <c r="D97" s="8"/>
+      <c r="E97" s="9"/>
+    </row>
+    <row r="98" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D98" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
